--- a/data/case1/18/Q2_1.xlsx
+++ b/data/case1/18/Q2_1.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.13554564399406388</v>
+        <v>0.091386431091322606</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.023943992442632123</v>
+        <v>0.042677264653139702</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999547379872</v>
+        <v>-0.0039999999839732681</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999165796254</v>
+        <v>-0.007999999969877436</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999551488798</v>
+        <v>-0.0029999999851328951</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999544175751</v>
+        <v>-0.0019999999862694295</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999998861286521</v>
+        <v>-0.0099999999602617962</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999998827988712</v>
+        <v>-0.0099999999601134704</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0051018922044820947</v>
+        <v>-0.001999999986445733</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999443243155</v>
+        <v>-0.0019999999868698382</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.00299999993539668</v>
+        <v>-0.0029999999837064806</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999299940576</v>
+        <v>-0.0034999999821212491</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999261797754</v>
+        <v>0.031985897519440698</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999998871009836</v>
+        <v>-0.0079999999683488809</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999994627442135</v>
+        <v>-0.00099999999087785341</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.001999999937163377</v>
+        <v>-0.0019999999873689944</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.001999999936606045</v>
+        <v>-0.0019999999870519147</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999193573998</v>
+        <v>-0.0039999999804312125</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999644693141</v>
+        <v>-0.0039999999866036084</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.003999999961875389</v>
+        <v>-0.0039999999857425195</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.003999999961477485</v>
+        <v>-0.0039999999855870882</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999611994852</v>
+        <v>-0.0039999999854725132</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999433900655</v>
+        <v>-0.0049999999797165628</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.0199999998107252</v>
+        <v>-0.019999999929118495</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999808227642</v>
+        <v>-0.019999999928212553</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999496611025</v>
+        <v>-0.0024999999843569043</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.002360399402714819</v>
+        <v>-0.0024999999838684062</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999483673037</v>
+        <v>0.05766321521982487</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999999025629478</v>
+        <v>-0.0069999999636687349</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999450228714</v>
+        <v>-0.059999999789216218</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.054638706600876219</v>
+        <v>-0.0069999999603265195</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999998818205427</v>
+        <v>-0.0099999999503790349</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.003999999932808862</v>
+        <v>-0.0039999999698512312</v>
       </c>
     </row>
   </sheetData>
